--- a/Tests/SeleniumJava/documentation/FoDTestCases.xlsx
+++ b/Tests/SeleniumJava/documentation/FoDTestCases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8C9833-C154-45C6-8FE5-9B52488A4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D5978-06BF-4FC1-BE7C-9C696F2F753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="424">
   <si>
     <t>Nr.</t>
   </si>
@@ -534,24 +534,12 @@
     <t>4. "Find and click Name input: id_name</t>
   </si>
   <si>
-    <t>10. Find expires input: id_sourceport</t>
-  </si>
-  <si>
-    <t>11. Add wrond data into: id_sourceport 'f//'</t>
-  </si>
-  <si>
     <t>13. Find text error: sourceport_error_id</t>
   </si>
   <si>
     <t>AddWrongDestPort</t>
   </si>
   <si>
-    <t>10. Find expires input: id_destinationport</t>
-  </si>
-  <si>
-    <t>11. Add wrond data into: id_destinationport 'f//'</t>
-  </si>
-  <si>
     <t>13. Find text error: destinationport_error_id</t>
   </si>
   <si>
@@ -561,12 +549,6 @@
     <t>4. Find and click Name input: id_nam</t>
   </si>
   <si>
-    <t>10. Find expires input: id_port</t>
-  </si>
-  <si>
-    <t>11. Add wrond data into: id_port 'f//'</t>
-  </si>
-  <si>
     <t>13. Find text error: port_error_id</t>
   </si>
   <si>
@@ -675,9 +657,6 @@
     <t>2. Add rule with name "testingLiveStatus"</t>
   </si>
   <si>
-    <t>4. Find and text: Rule add: testingLiveStatus</t>
-  </si>
-  <si>
     <t>LiveStatusUpdate</t>
   </si>
   <si>
@@ -693,9 +672,6 @@
     <t>6. Find and click on dashboard button: navigation_dashboard_id</t>
   </si>
   <si>
-    <t>7. Find and text: Rule edit: testingLiveStatus</t>
-  </si>
-  <si>
     <t>LiveStatusUpdateFromDashboard</t>
   </si>
   <si>
@@ -864,33 +840,18 @@
     <t>3. Find and select on records per page button: routes_table_length</t>
   </si>
   <si>
-    <t>4. Find and text: Showing 1 to 5 of</t>
-  </si>
-  <si>
     <t>RoutesTableLength15</t>
   </si>
   <si>
     <t>2. Add 15 rules</t>
   </si>
   <si>
-    <t>4. Find and text: Showing 1 to 15 of</t>
-  </si>
-  <si>
     <t>RoutesTableLength20</t>
   </si>
   <si>
     <t>2. Add 20 rules</t>
   </si>
   <si>
-    <t>4. Find and text: Showing 1 to 20 of</t>
-  </si>
-  <si>
-    <t>3. Find and text: Rule add: testingLiveStatus</t>
-  </si>
-  <si>
-    <t>6. Find and text: Rule edit: testingLiveStatus</t>
-  </si>
-  <si>
     <t>GoToSideDashboardFromOverview</t>
   </si>
   <si>
@@ -991,6 +952,363 @@
   </si>
   <si>
     <t>DeleteActionAPI</t>
+  </si>
+  <si>
+    <t>1. Site opened</t>
+  </si>
+  <si>
+    <t>2. Login input found</t>
+  </si>
+  <si>
+    <t>3. Data in login input added</t>
+  </si>
+  <si>
+    <t>4. Password input found</t>
+  </si>
+  <si>
+    <t>5. Data in password input added</t>
+  </si>
+  <si>
+    <t>6. Apply button found and clickable</t>
+  </si>
+  <si>
+    <t>7. Page changed with "My rules" page and "My rules" header found</t>
+  </si>
+  <si>
+    <t>7. Required attribute found</t>
+  </si>
+  <si>
+    <t>7. Error found</t>
+  </si>
+  <si>
+    <t>2. Add Route button fornd and clickable</t>
+  </si>
+  <si>
+    <t>3. Add Rule header found</t>
+  </si>
+  <si>
+    <t>4. Name input found and clickable</t>
+  </si>
+  <si>
+    <t>5. Input left empty</t>
+  </si>
+  <si>
+    <t>5. Name "npattack" setted</t>
+  </si>
+  <si>
+    <t>10. Apply button found and clickable</t>
+  </si>
+  <si>
+    <t>12. Apply button found and clickable</t>
+  </si>
+  <si>
+    <t>6. Source input fornd</t>
+  </si>
+  <si>
+    <t>7. Wrong data into source input setted</t>
+  </si>
+  <si>
+    <t>8. Destination input found</t>
+  </si>
+  <si>
+    <t>9. Data into destination input setted</t>
+  </si>
+  <si>
+    <t>11. Error message found</t>
+  </si>
+  <si>
+    <t>7. Data into source input setted</t>
+  </si>
+  <si>
+    <t>9. Wrong data into destination input setted</t>
+  </si>
+  <si>
+    <t>13. Error message found</t>
+  </si>
+  <si>
+    <t>10. Expires input found</t>
+  </si>
+  <si>
+    <t>10. Find Source port input: id_sourceport</t>
+  </si>
+  <si>
+    <t>10. Source port input found</t>
+  </si>
+  <si>
+    <t>10. Find Destination port input: id_destinationport</t>
+  </si>
+  <si>
+    <t>10. Destinatio port input found</t>
+  </si>
+  <si>
+    <t>10. Find Ports input: id_port</t>
+  </si>
+  <si>
+    <t>10. Ports input found</t>
+  </si>
+  <si>
+    <t>11. Expires input cleared</t>
+  </si>
+  <si>
+    <t>13. Required attribute found</t>
+  </si>
+  <si>
+    <t>11. Wrong data into Source port setted</t>
+  </si>
+  <si>
+    <t>11. Wrong data into Destination port setted</t>
+  </si>
+  <si>
+    <t>11. Wrong data into Ports setted</t>
+  </si>
+  <si>
+    <t>11. Add wrong data into: id_port 'f//'</t>
+  </si>
+  <si>
+    <t>11. Add wrong data into: id_destinationport 'f//'</t>
+  </si>
+  <si>
+    <t>11. Add wrong data into: id_sourceport 'f//'</t>
+  </si>
+  <si>
+    <t>2. Rule added</t>
+  </si>
+  <si>
+    <t>2.  5 rules added</t>
+  </si>
+  <si>
+    <t>2.  15 rules added</t>
+  </si>
+  <si>
+    <t>2.  20 rules added</t>
+  </si>
+  <si>
+    <t>3. Dashboard button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Rule on dashboard found</t>
+  </si>
+  <si>
+    <t>2. Dashboard button found and clickable</t>
+  </si>
+  <si>
+    <t>6. Dashboard button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Fix it button found and clickable</t>
+  </si>
+  <si>
+    <t>5. Edit rule header found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Add rule button found and clickable </t>
+  </si>
+  <si>
+    <t>4. Edit rule header found</t>
+  </si>
+  <si>
+    <t>3. My rules button found and clickable</t>
+  </si>
+  <si>
+    <t>3. My profile button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Edit my profile header found</t>
+  </si>
+  <si>
+    <t>4. Dashboard header found</t>
+  </si>
+  <si>
+    <t>3. Rules button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Rules header found</t>
+  </si>
+  <si>
+    <t>3. Overview button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Overview header found</t>
+  </si>
+  <si>
+    <t>3. Admin button found and clickable</t>
+  </si>
+  <si>
+    <t>3. Profile button found and clickable</t>
+  </si>
+  <si>
+    <t>2. Rule with name "testingLiveStatus" added</t>
+  </si>
+  <si>
+    <t>4. Find the text: Rule add: testingLiveStatus</t>
+  </si>
+  <si>
+    <t>7. Find the text: Rule edit: testingLiveStatus</t>
+  </si>
+  <si>
+    <t>4. The text found</t>
+  </si>
+  <si>
+    <t>3. Pending button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Text setted into comment input</t>
+  </si>
+  <si>
+    <t>5. Apply button found and clickable</t>
+  </si>
+  <si>
+    <t>7. The text found</t>
+  </si>
+  <si>
+    <t>4. Pending button found and clickable</t>
+  </si>
+  <si>
+    <t>5. Comment into comments input setted</t>
+  </si>
+  <si>
+    <t>3. New rule found in the table</t>
+  </si>
+  <si>
+    <t>3. Fix it button found and clickable</t>
+  </si>
+  <si>
+    <t>2. Add rule button found and clickable</t>
+  </si>
+  <si>
+    <t>3. Edit rule header found</t>
+  </si>
+  <si>
+    <t>2. My profile button found and clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Edit my profile header found </t>
+  </si>
+  <si>
+    <t>3. Dashboard header found</t>
+  </si>
+  <si>
+    <t>2. Rules button found and clickable</t>
+  </si>
+  <si>
+    <t>3.  Rules header found</t>
+  </si>
+  <si>
+    <t>3. Rules header found</t>
+  </si>
+  <si>
+    <t>2. Overview button found and clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Overview header found </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Admin button found and clickable </t>
+  </si>
+  <si>
+    <t>2. Profile button found and clickable</t>
+  </si>
+  <si>
+    <t>2. Active button found and clickable</t>
+  </si>
+  <si>
+    <t>2. Pending button founf and clickable</t>
+  </si>
+  <si>
+    <t>2. Error button found and clickable</t>
+  </si>
+  <si>
+    <t>2. Deactivated button found and clickable</t>
+  </si>
+  <si>
+    <t>3. Active button found and clickable</t>
+  </si>
+  <si>
+    <t>3. Error button found and clickable</t>
+  </si>
+  <si>
+    <t>2. Pending button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Active button found and clickable</t>
+  </si>
+  <si>
+    <t>4. Deactivated button founf and clickable</t>
+  </si>
+  <si>
+    <t>4. Error button found and clickable</t>
+  </si>
+  <si>
+    <t>5. Deactivated button found and clickable</t>
+  </si>
+  <si>
+    <t>3. Find and click on active button: show_error</t>
+  </si>
+  <si>
+    <t>3. Records per page button found and selected</t>
+  </si>
+  <si>
+    <t>4. Find the text: Showing 1 to 5 of</t>
+  </si>
+  <si>
+    <t>4. Find the text: Showing 1 to 15 of</t>
+  </si>
+  <si>
+    <t>4. Find the text: Showing 1 to 20 of</t>
+  </si>
+  <si>
+    <t>3. Find the text: Rule add: testingLiveStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2. Rule with the name added</t>
+  </si>
+  <si>
+    <t>3.  The text found</t>
+  </si>
+  <si>
+    <t>4. Comment added into input</t>
+  </si>
+  <si>
+    <t>6. The text found</t>
+  </si>
+  <si>
+    <t>6. Find the text: Rule edit: testingLiveStatus</t>
+  </si>
+  <si>
+    <t>3. Add rule button found and clickable</t>
+  </si>
+  <si>
+    <t>3. Profile buton founf and clickable</t>
+  </si>
+  <si>
+    <t>4. My profile header found</t>
+  </si>
+  <si>
+    <t>3. Users button found and clickable</t>
+  </si>
+  <si>
+    <t>4. User table name found</t>
+  </si>
+  <si>
+    <t>4. Rules table name found</t>
+  </si>
+  <si>
+    <t>3. Records per page found and selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Edit rule header found </t>
+  </si>
+  <si>
+    <t>3. Token button found and clickable</t>
+  </si>
+  <si>
+    <t>3. Generate token found and clickable</t>
+  </si>
+  <si>
+    <t>4. Generated token found</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1698,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
@@ -1403,21 +1721,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,7 +1735,52 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
@@ -1454,36 +1804,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1491,54 +1811,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1562,6 +1834,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1571,13 +1849,55 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
@@ -1867,7 +2187,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B90" sqref="B90:B97"/>
     </sheetView>
   </sheetViews>
@@ -1900,10 +2220,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1918,8 +2238,8 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
@@ -1932,8 +2252,8 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
@@ -1946,42 +2266,42 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1996,8 +2316,8 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
@@ -2010,8 +2330,8 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2024,42 +2344,42 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="12"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="12"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="12"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="13"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="28">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2074,8 +2394,8 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
@@ -2088,8 +2408,8 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
@@ -2102,42 +2422,42 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="24">
         <v>4</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2152,8 +2472,8 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2166,8 +2486,8 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2180,42 +2500,42 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="12"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="12"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="12"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="28">
         <v>5</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2230,8 +2550,8 @@
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="5" t="s">
         <v>61</v>
       </c>
@@ -2244,8 +2564,8 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="5" t="s">
         <v>46</v>
       </c>
@@ -2258,50 +2578,50 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="11"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="11"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="24">
         <v>6</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="26" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2316,8 +2636,8 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
@@ -2330,8 +2650,8 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2344,42 +2664,42 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="12"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="12"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="12"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="13"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
+      <c r="A45" s="28">
         <v>7</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2394,8 +2714,8 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="5" t="s">
         <v>65</v>
       </c>
@@ -2408,8 +2728,8 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="5" t="s">
         <v>46</v>
       </c>
@@ -2422,50 +2742,50 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="11"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="11"/>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="11"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+      <c r="A53" s="24">
         <v>8</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2480,8 +2800,8 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="2" t="s">
         <v>73</v>
       </c>
@@ -2494,8 +2814,8 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="2" t="s">
         <v>46</v>
       </c>
@@ -2508,42 +2828,42 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="12"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="12"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="12"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="13"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="25">
+      <c r="A60" s="28">
         <v>9</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -2558,8 +2878,8 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="5" t="s">
         <v>70</v>
       </c>
@@ -2572,8 +2892,8 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="5" t="s">
         <v>46</v>
       </c>
@@ -2586,50 +2906,50 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="11"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="11"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="11"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="11"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="11"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
+      <c r="A68" s="24">
         <v>10</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="26" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2644,8 +2964,8 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="2" t="s">
         <v>72</v>
       </c>
@@ -2658,8 +2978,8 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="2" t="s">
         <v>46</v>
       </c>
@@ -2672,42 +2992,42 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="12"/>
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="12"/>
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="30"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="12"/>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="13"/>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
+      <c r="A75" s="28">
         <v>11</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -2722,8 +3042,8 @@
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="5" t="s">
         <v>78</v>
       </c>
@@ -2736,8 +3056,8 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="5" t="s">
         <v>46</v>
       </c>
@@ -2750,50 +3070,50 @@
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="11"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="11"/>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="11"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="11"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="11"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
+      <c r="A83" s="31">
         <v>12</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -2808,8 +3128,8 @@
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="14" t="s">
         <v>80</v>
       </c>
@@ -2822,8 +3142,8 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="14" t="s">
         <v>46</v>
       </c>
@@ -2836,42 +3156,42 @@
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
+      <c r="A90" s="28">
         <v>13</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -2886,8 +3206,8 @@
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="5" t="s">
         <v>47</v>
       </c>
@@ -2900,8 +3220,8 @@
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="5" t="s">
         <v>83</v>
       </c>
@@ -2914,8 +3234,8 @@
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="5" t="s">
         <v>84</v>
       </c>
@@ -2928,8 +3248,8 @@
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="5" t="s">
         <v>85</v>
       </c>
@@ -2942,8 +3262,8 @@
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="5" t="s">
         <v>86</v>
       </c>
@@ -2956,8 +3276,8 @@
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="5" t="s">
         <v>87</v>
       </c>
@@ -2970,8 +3290,8 @@
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="26"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="5" t="s">
         <v>88</v>
       </c>
@@ -2984,10 +3304,10 @@
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="22">
+      <c r="A98" s="31">
         <v>14</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3002,8 +3322,8 @@
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="2" t="s">
         <v>50</v>
       </c>
@@ -3016,8 +3336,8 @@
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="2" t="s">
         <v>89</v>
       </c>
@@ -3030,8 +3350,8 @@
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="2" t="s">
         <v>90</v>
       </c>
@@ -3044,8 +3364,8 @@
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="2" t="s">
         <v>91</v>
       </c>
@@ -3058,8 +3378,8 @@
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="31"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="2" t="s">
         <v>92</v>
       </c>
@@ -3072,8 +3392,8 @@
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="2" t="s">
         <v>93</v>
       </c>
@@ -3086,8 +3406,8 @@
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="2" t="s">
         <v>88</v>
       </c>
@@ -3101,6 +3421,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="B98:B105"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="A30:A37"/>
@@ -3111,24 +3449,6 @@
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="B98:B105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3141,7 +3461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,461 +3493,545 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="44">
         <v>2</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="39" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="E15" s="15"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="45">
         <v>3</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="40">
         <v>4</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="39" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="E29" s="15"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+      <c r="A30" s="42">
         <v>5</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="B37:B43"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3672,10 +4076,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3690,8 +4094,8 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3704,8 +4108,8 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
@@ -3718,8 +4122,8 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
@@ -3732,16 +4136,16 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4050,8 +4454,8 @@
   <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,10 +4487,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="70">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -4101,8 +4505,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4115,8 +4519,8 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
@@ -4129,8 +4533,8 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
@@ -4143,8 +4547,8 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4157,8 +4561,8 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4171,8 +4575,8 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
@@ -4185,10 +4589,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="66">
         <v>2</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="73" t="s">
         <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4203,8 +4607,8 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -4217,8 +4621,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4231,8 +4635,8 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4245,8 +4649,8 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
@@ -4259,8 +4663,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
@@ -4273,8 +4677,8 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
@@ -4287,10 +4691,10 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+      <c r="A16" s="70">
         <v>3</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="71" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -4305,8 +4709,8 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
@@ -4319,8 +4723,8 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
@@ -4333,8 +4737,8 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
@@ -4347,8 +4751,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
@@ -4361,8 +4765,8 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
@@ -4375,8 +4779,8 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
@@ -4389,10 +4793,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="61">
+      <c r="A23" s="66">
         <v>4</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="68" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -4407,8 +4811,8 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
@@ -4421,8 +4825,8 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
@@ -4435,8 +4839,8 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
@@ -4449,8 +4853,8 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
@@ -4463,8 +4867,8 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
@@ -4477,8 +4881,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
@@ -4491,10 +4895,10 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="70">
         <v>5</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="71" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -4509,8 +4913,8 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
@@ -4523,8 +4927,8 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
@@ -4537,8 +4941,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="5" t="s">
         <v>16</v>
       </c>
@@ -4551,8 +4955,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
@@ -4565,8 +4969,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
@@ -4579,8 +4983,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="5" t="s">
         <v>31</v>
       </c>
@@ -4593,8 +4997,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
@@ -4607,10 +5011,10 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="68">
+      <c r="A38" s="54">
         <v>6</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4625,8 +5029,8 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
@@ -4639,8 +5043,8 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
@@ -4653,8 +5057,8 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
@@ -4667,13 +5071,13 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>26</v>
@@ -4681,8 +5085,8 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="72"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
@@ -4695,8 +5099,8 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="2" t="s">
         <v>37</v>
       </c>
@@ -4709,8 +5113,8 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="73"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
@@ -4723,10 +5127,10 @@
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="68">
+      <c r="A46" s="54">
         <v>7</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -4741,8 +5145,8 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="72"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="5" t="s">
         <v>4</v>
       </c>
@@ -4755,8 +5159,8 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="72"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="5" t="s">
         <v>10</v>
       </c>
@@ -4769,8 +5173,8 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="5" t="s">
         <v>16</v>
       </c>
@@ -4783,8 +5187,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
@@ -4797,8 +5201,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="5" t="s">
         <v>12</v>
       </c>
@@ -4811,8 +5215,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="5" t="s">
         <v>39</v>
       </c>
@@ -4825,8 +5229,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="5" t="s">
         <v>30</v>
       </c>
@@ -4839,10 +5243,10 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="68">
+      <c r="A54" s="54">
         <v>8</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="57" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -4857,8 +5261,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
@@ -4871,8 +5275,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
@@ -4885,8 +5289,8 @@
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
@@ -4899,8 +5303,8 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
@@ -4913,8 +5317,8 @@
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
-      <c r="B59" s="72"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
@@ -4927,8 +5331,8 @@
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="72"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="2" t="s">
         <v>41</v>
       </c>
@@ -4941,8 +5345,8 @@
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="73"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
@@ -4955,875 +5359,1037 @@
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="75">
+      <c r="A62" s="63">
         <v>9</v>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="60" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E62" s="15"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
-      <c r="B63" s="56"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="61"/>
       <c r="C63" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="15"/>
+      <c r="D63" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="E63" s="15"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="76"/>
-      <c r="B64" s="56"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="15"/>
+      <c r="D64" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="E64" s="15"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
-      <c r="B65" s="56"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="E65" s="15"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="76"/>
-      <c r="B66" s="56"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="61"/>
       <c r="C66" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>317</v>
+      </c>
       <c r="E66" s="15"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="76"/>
-      <c r="B67" s="56"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="61"/>
       <c r="C67" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="E67" s="15"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
-      <c r="B68" s="57"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="62"/>
       <c r="C68" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="E68" s="15"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="37">
+      <c r="A69" s="49">
         <v>10</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="76" t="s">
         <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="56"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="61"/>
       <c r="C70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="56"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="61"/>
       <c r="C71" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="56"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="56"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="61"/>
       <c r="C73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="56"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="61"/>
       <c r="C74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="56"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="61"/>
       <c r="C75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="56"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="61"/>
       <c r="C76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="56"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="61"/>
       <c r="C77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="56"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="61"/>
       <c r="C78" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-      <c r="B79" s="57"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="52">
+      <c r="A80" s="77">
         <v>11</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="76" t="s">
         <v>154</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="56"/>
+      <c r="A81" s="78"/>
+      <c r="B81" s="61"/>
       <c r="C81" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="15"/>
+      <c r="D81" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="56"/>
+      <c r="A82" s="78"/>
+      <c r="B82" s="61"/>
       <c r="C82" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D82" s="15"/>
+      <c r="D82" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="56"/>
+      <c r="A83" s="78"/>
+      <c r="B83" s="61"/>
       <c r="C83" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="15"/>
+      <c r="D83" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="56"/>
+      <c r="A84" s="78"/>
+      <c r="B84" s="61"/>
       <c r="C84" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D84" s="15"/>
+      <c r="D84" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="56"/>
+      <c r="A85" s="78"/>
+      <c r="B85" s="61"/>
       <c r="C85" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="15"/>
+      <c r="D85" s="15" t="s">
+        <v>321</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="56"/>
+      <c r="A86" s="78"/>
+      <c r="B86" s="61"/>
       <c r="C86" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="15"/>
+      <c r="D86" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="56"/>
+      <c r="A87" s="78"/>
+      <c r="B87" s="61"/>
       <c r="C87" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D87" s="15"/>
+      <c r="D87" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="56"/>
+      <c r="A88" s="78"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="15"/>
+      <c r="D88" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="E88" s="15"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="56"/>
+      <c r="A89" s="78"/>
+      <c r="B89" s="61"/>
       <c r="C89" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="15"/>
+      <c r="D89" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="E89" s="15"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="57"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="62"/>
       <c r="C90" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D90" s="15"/>
+      <c r="D90" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="E90" s="15"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="37">
+      <c r="A91" s="49">
         <v>12</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="76" t="s">
         <v>158</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="56"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="61"/>
       <c r="C92" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="56"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="61"/>
       <c r="C93" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="56"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="61"/>
       <c r="C94" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="56"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="61"/>
       <c r="C95" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="56"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="61"/>
       <c r="C96" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="56"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="61"/>
       <c r="C97" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="56"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="61"/>
       <c r="C98" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="56"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="61"/>
       <c r="C99" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="56"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="61"/>
       <c r="C100" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="56"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="61"/>
       <c r="C101" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="56"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
-      <c r="B103" s="57"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="62"/>
       <c r="C103" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="52">
+      <c r="A104" s="77">
         <v>13</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="B104" s="76" t="s">
         <v>163</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D104" s="15"/>
+      <c r="D104" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E104" s="15"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="56"/>
+      <c r="A105" s="78"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D105" s="15"/>
+      <c r="D105" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="E105" s="15"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="56"/>
+      <c r="A106" s="78"/>
+      <c r="B106" s="61"/>
       <c r="C106" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="15"/>
+      <c r="D106" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="E106" s="15"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="56"/>
+      <c r="A107" s="78"/>
+      <c r="B107" s="61"/>
       <c r="C107" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="15"/>
+      <c r="D107" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="E107" s="15"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
-      <c r="B108" s="56"/>
+      <c r="A108" s="78"/>
+      <c r="B108" s="61"/>
       <c r="C108" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D108" s="15"/>
+      <c r="D108" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="E108" s="15"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="56"/>
+      <c r="A109" s="78"/>
+      <c r="B109" s="61"/>
       <c r="C109" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D109" s="15"/>
+      <c r="D109" s="15" t="s">
+        <v>321</v>
+      </c>
       <c r="E109" s="15"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
-      <c r="B110" s="56"/>
+      <c r="A110" s="78"/>
+      <c r="B110" s="61"/>
       <c r="C110" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D110" s="15"/>
+      <c r="D110" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="E110" s="15"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
-      <c r="B111" s="56"/>
+      <c r="A111" s="78"/>
+      <c r="B111" s="61"/>
       <c r="C111" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D111" s="15"/>
+      <c r="D111" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="E111" s="15"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="56"/>
+      <c r="A112" s="78"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D112" s="15"/>
+      <c r="D112" s="15" t="s">
+        <v>324</v>
+      </c>
       <c r="E112" s="15"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="56"/>
+      <c r="A113" s="78"/>
+      <c r="B113" s="61"/>
       <c r="C113" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D113" s="15"/>
+        <v>330</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>331</v>
+      </c>
       <c r="E113" s="15"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
-      <c r="B114" s="56"/>
+      <c r="A114" s="78"/>
+      <c r="B114" s="61"/>
       <c r="C114" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" s="15"/>
+        <v>343</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>338</v>
+      </c>
       <c r="E114" s="15"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="56"/>
+      <c r="A115" s="78"/>
+      <c r="B115" s="61"/>
       <c r="C115" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D115" s="15"/>
+      <c r="D115" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="E115" s="15"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
-      <c r="B116" s="57"/>
+      <c r="A116" s="79"/>
+      <c r="B116" s="62"/>
       <c r="C116" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D116" s="15"/>
+        <v>165</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>328</v>
+      </c>
       <c r="E116" s="15"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="37">
+      <c r="A117" s="49">
         <v>14</v>
       </c>
-      <c r="B117" s="55" t="s">
-        <v>168</v>
+      <c r="B117" s="76" t="s">
+        <v>166</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="B118" s="56"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="61"/>
       <c r="C118" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="28"/>
-      <c r="B119" s="56"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="61"/>
       <c r="C119" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="28"/>
-      <c r="B120" s="56"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="61"/>
       <c r="C120" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="B121" s="56"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="28"/>
-      <c r="B122" s="56"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="61"/>
       <c r="C122" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="28"/>
-      <c r="B123" s="56"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="61"/>
       <c r="C123" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
-      <c r="B124" s="56"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="61"/>
       <c r="C124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="28"/>
-      <c r="B125" s="56"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="61"/>
       <c r="C125" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="28"/>
-      <c r="B126" s="56"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="61"/>
       <c r="C126" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="28"/>
-      <c r="B127" s="56"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="61"/>
       <c r="C127" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="28"/>
-      <c r="B128" s="56"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="61"/>
       <c r="C128" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
-      <c r="B129" s="57"/>
+      <c r="A129" s="75"/>
+      <c r="B129" s="62"/>
       <c r="C129" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="52">
+      <c r="A130" s="77">
         <v>15</v>
       </c>
-      <c r="B130" s="55" t="s">
-        <v>172</v>
+      <c r="B130" s="76" t="s">
+        <v>168</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D130" s="15"/>
+      <c r="D130" s="23" t="s">
+        <v>7</v>
+      </c>
       <c r="E130" s="15"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
-      <c r="B131" s="56"/>
+      <c r="A131" s="78"/>
+      <c r="B131" s="61"/>
       <c r="C131" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D131" s="15"/>
+      <c r="D131" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="E131" s="15"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="56"/>
+      <c r="A132" s="78"/>
+      <c r="B132" s="61"/>
       <c r="C132" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="15"/>
+      <c r="D132" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="E132" s="15"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="56"/>
+      <c r="A133" s="78"/>
+      <c r="B133" s="61"/>
       <c r="C133" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D133" s="15"/>
+        <v>169</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="E133" s="15"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="56"/>
+      <c r="A134" s="78"/>
+      <c r="B134" s="61"/>
       <c r="C134" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D134" s="15"/>
+      <c r="D134" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="E134" s="15"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="56"/>
+      <c r="A135" s="78"/>
+      <c r="B135" s="61"/>
       <c r="C135" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D135" s="15"/>
+      <c r="D135" s="15" t="s">
+        <v>321</v>
+      </c>
       <c r="E135" s="15"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="56"/>
+      <c r="A136" s="78"/>
+      <c r="B136" s="61"/>
       <c r="C136" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D136" s="15"/>
+      <c r="D136" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="E136" s="15"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
-      <c r="B137" s="56"/>
+      <c r="A137" s="78"/>
+      <c r="B137" s="61"/>
       <c r="C137" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D137" s="15"/>
+      <c r="D137" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="E137" s="15"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="56"/>
+      <c r="A138" s="78"/>
+      <c r="B138" s="61"/>
       <c r="C138" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D138" s="15"/>
+      <c r="D138" s="15" t="s">
+        <v>324</v>
+      </c>
       <c r="E138" s="15"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="56"/>
+      <c r="A139" s="78"/>
+      <c r="B139" s="61"/>
       <c r="C139" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D139" s="15"/>
+        <v>334</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>335</v>
+      </c>
       <c r="E139" s="15"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="56"/>
+      <c r="A140" s="78"/>
+      <c r="B140" s="61"/>
       <c r="C140" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D140" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="E140" s="15"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="56"/>
+      <c r="A141" s="78"/>
+      <c r="B141" s="61"/>
       <c r="C141" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D141" s="15"/>
+      <c r="D141" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="E141" s="15"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="54"/>
-      <c r="B142" s="57"/>
+      <c r="A142" s="79"/>
+      <c r="B142" s="62"/>
       <c r="C142" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D142" s="15"/>
+        <v>170</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>328</v>
+      </c>
       <c r="E142" s="15"/>
       <c r="F142" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="B104:B116"/>
+    <mergeCell ref="A117:A129"/>
+    <mergeCell ref="B117:B129"/>
+    <mergeCell ref="A130:A142"/>
+    <mergeCell ref="B130:B142"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="B69:B79"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B80:B90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="B91:B103"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:B45"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="B46:B53"/>
     <mergeCell ref="A54:A61"/>
     <mergeCell ref="B54:B61"/>
     <mergeCell ref="B62:B68"/>
     <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="A69:A79"/>
-    <mergeCell ref="B69:B79"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="B80:B90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="B91:B103"/>
-    <mergeCell ref="A104:A116"/>
-    <mergeCell ref="B104:B116"/>
-    <mergeCell ref="A117:A129"/>
-    <mergeCell ref="B117:B129"/>
-    <mergeCell ref="A130:A142"/>
-    <mergeCell ref="B130:B142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5834,9 +6400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2562902-3D50-4F8B-A187-B9300F20E2C8}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:B26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,701 +6434,807 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>177</v>
+      <c r="B2" s="46" t="s">
+        <v>171</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>344</v>
+      </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="20"/>
+        <v>173</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>348</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>349</v>
+      </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="77">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>181</v>
+      <c r="B6" s="46" t="s">
+        <v>175</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>344</v>
+      </c>
       <c r="E7" s="21"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>177</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>352</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>178</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>353</v>
+      </c>
       <c r="E10" s="21"/>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="49">
         <v>3</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>185</v>
+      <c r="B11" s="46" t="s">
+        <v>179</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="20"/>
+        <v>182</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>355</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="77">
         <v>4</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>189</v>
+      <c r="B15" s="46" t="s">
+        <v>183</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>350</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>356</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>355</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="49">
         <v>5</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>192</v>
+      <c r="B19" s="46" t="s">
+        <v>186</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="20"/>
+        <v>187</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="20"/>
+        <v>188</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>358</v>
+      </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
+      <c r="A23" s="77">
         <v>6</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>195</v>
+      <c r="B23" s="46" t="s">
+        <v>189</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>350</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>359</v>
+      </c>
       <c r="E26" s="21"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="49">
         <v>7</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>197</v>
+      <c r="B27" s="46" t="s">
+        <v>191</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="20"/>
+        <v>192</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31" s="77">
         <v>8</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>200</v>
+      <c r="B31" s="46" t="s">
+        <v>194</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>350</v>
+      </c>
       <c r="E32" s="21"/>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="21"/>
+        <v>195</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>354</v>
+      </c>
       <c r="E33" s="21"/>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>361</v>
+      </c>
       <c r="E34" s="21"/>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+      <c r="A35" s="49">
         <v>9</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>203</v>
+      <c r="B35" s="46" t="s">
+        <v>197</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="20"/>
+        <v>198</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>362</v>
+      </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="20"/>
+        <v>199</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>363</v>
+      </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="52">
+      <c r="A39" s="77">
         <v>10</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>206</v>
+      <c r="B39" s="46" t="s">
+        <v>200</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>350</v>
+      </c>
       <c r="E40" s="21"/>
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="21"/>
+        <v>201</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>364</v>
+      </c>
       <c r="E41" s="21"/>
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
+      <c r="A42" s="49">
         <v>11</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>208</v>
+      <c r="B42" s="46" t="s">
+        <v>202</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="78"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="52">
+      <c r="A46" s="77">
         <v>12</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>210</v>
+      <c r="B46" s="46" t="s">
+        <v>204</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="15"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="15"/>
+        <v>205</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>366</v>
+      </c>
       <c r="E47" s="15"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="E48" s="15"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" s="15"/>
+        <v>367</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>369</v>
+      </c>
       <c r="E49" s="15"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="37">
+      <c r="A50" s="49">
         <v>13</v>
       </c>
-      <c r="B50" s="34" t="s">
-        <v>213</v>
+      <c r="B50" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="78"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="80"/>
       <c r="C56" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="52">
+      <c r="A57" s="77">
         <v>14</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>219</v>
+      <c r="B57" s="46" t="s">
+        <v>211</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E57" s="15"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="15"/>
+        <v>205</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>366</v>
+      </c>
       <c r="E58" s="15"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="E59" s="15"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="35"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>374</v>
+      </c>
       <c r="E60" s="15"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D61" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>375</v>
+      </c>
       <c r="E61" s="15"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="E62" s="15"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="78"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="80"/>
       <c r="C63" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="15"/>
+        <v>368</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>373</v>
+      </c>
       <c r="E63" s="15"/>
       <c r="F63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="A57:A63"/>
@@ -6573,6 +7245,24 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6583,9 +7273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD879C0-758E-4902-89D0-B171CEE541FD}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,1107 +7307,1357 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>222</v>
+      <c r="B2" s="81" t="s">
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="44">
         <v>2</v>
       </c>
-      <c r="B5" s="79" t="s">
-        <v>224</v>
+      <c r="B5" s="81" t="s">
+        <v>216</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>344</v>
+      </c>
       <c r="E6" s="15"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>377</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>355</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="45">
         <v>2</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>226</v>
+      <c r="B9" s="81" t="s">
+        <v>218</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="20"/>
+        <v>219</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>378</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>220</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>379</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="44">
         <v>3</v>
       </c>
-      <c r="B12" s="79" t="s">
-        <v>229</v>
+      <c r="B12" s="81" t="s">
+        <v>221</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>222</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="E13" s="21"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>381</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="45">
         <v>4</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>232</v>
+      <c r="B15" s="81" t="s">
+        <v>224</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>382</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="44">
         <v>5</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>234</v>
+      <c r="B18" s="81" t="s">
+        <v>226</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="21"/>
+        <v>227</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>383</v>
+      </c>
       <c r="E19" s="21"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>228</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>384</v>
+      </c>
       <c r="E20" s="21"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="45">
         <v>6</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>237</v>
+      <c r="B21" s="81" t="s">
+        <v>229</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="20"/>
+        <v>230</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>378</v>
+      </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="20"/>
+        <v>231</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>385</v>
+      </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="44">
         <v>7</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>240</v>
+      <c r="B24" s="81" t="s">
+        <v>232</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>233</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>386</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="21"/>
+        <v>234</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>387</v>
+      </c>
       <c r="E26" s="21"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="45">
         <v>8</v>
       </c>
-      <c r="B27" s="79" t="s">
-        <v>243</v>
+      <c r="B27" s="81" t="s">
+        <v>235</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="20"/>
+        <v>236</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>388</v>
+      </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="44">
         <v>9</v>
       </c>
-      <c r="B29" s="79" t="s">
-        <v>245</v>
+      <c r="B29" s="81" t="s">
+        <v>237</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="21"/>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>238</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>389</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>381</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="45">
         <v>10</v>
       </c>
-      <c r="B32" s="79" t="s">
-        <v>247</v>
+      <c r="B32" s="81" t="s">
+        <v>239</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="20"/>
+        <v>240</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="44">
         <v>11</v>
       </c>
-      <c r="B34" s="79" t="s">
-        <v>249</v>
+      <c r="B34" s="81" t="s">
+        <v>241</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="21"/>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="21"/>
+        <v>242</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>391</v>
+      </c>
       <c r="E35" s="21"/>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="45">
         <v>12</v>
       </c>
-      <c r="B36" s="79" t="s">
-        <v>251</v>
+      <c r="B36" s="81" t="s">
+        <v>243</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>392</v>
+      </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="44">
         <v>13</v>
       </c>
-      <c r="B38" s="79" t="s">
-        <v>253</v>
+      <c r="B38" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E38" s="21"/>
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>393</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+      <c r="A40" s="45">
         <v>14</v>
       </c>
-      <c r="B40" s="79" t="s">
-        <v>255</v>
+      <c r="B40" s="81" t="s">
+        <v>247</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="79"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="20"/>
+        <v>246</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>393</v>
+      </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" s="20"/>
+        <v>248</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="44">
         <v>15</v>
       </c>
-      <c r="B43" s="79" t="s">
-        <v>257</v>
+      <c r="B43" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="21"/>
       <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>393</v>
+      </c>
       <c r="E44" s="15"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="79"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="15"/>
+        <v>250</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>395</v>
+      </c>
       <c r="E45" s="15"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="33">
+      <c r="A46" s="45">
         <v>16</v>
       </c>
-      <c r="B46" s="79" t="s">
-        <v>259</v>
+      <c r="B46" s="81" t="s">
+        <v>251</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="79"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="79"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="44">
         <v>17</v>
       </c>
-      <c r="B49" s="79" t="s">
-        <v>260</v>
+      <c r="B49" s="81" t="s">
+        <v>252</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E49" s="15"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="79"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>390</v>
+      </c>
       <c r="E50" s="15"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="79"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="15"/>
+        <v>207</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>370</v>
+      </c>
       <c r="E51" s="15"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33">
+      <c r="A52" s="45">
         <v>18</v>
       </c>
-      <c r="B52" s="79" t="s">
-        <v>261</v>
+      <c r="B52" s="81" t="s">
+        <v>253</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="79"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="79"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
+      <c r="A55" s="44">
         <v>19</v>
       </c>
-      <c r="B55" s="79" t="s">
-        <v>262</v>
+      <c r="B55" s="81" t="s">
+        <v>254</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D55" s="82" t="s">
+        <v>7</v>
+      </c>
       <c r="E55" s="15"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="79"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="15"/>
+        <v>242</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>396</v>
+      </c>
       <c r="E56" s="15"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="79"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="81"/>
       <c r="C57" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="15"/>
+        <v>250</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>395</v>
+      </c>
       <c r="E57" s="15"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
+      <c r="A58" s="45">
         <v>20</v>
       </c>
-      <c r="B58" s="79" t="s">
-        <v>263</v>
+      <c r="B58" s="81" t="s">
+        <v>255</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="79"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="79"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="79"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="32">
+      <c r="A62" s="44">
         <v>21</v>
       </c>
-      <c r="B62" s="79" t="s">
-        <v>265</v>
+      <c r="B62" s="81" t="s">
+        <v>257</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E62" s="15"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="79"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="81"/>
       <c r="C63" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="15"/>
+        <v>242</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>396</v>
+      </c>
       <c r="E63" s="15"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="79"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="81"/>
       <c r="C64" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="15"/>
+        <v>250</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>395</v>
+      </c>
       <c r="E64" s="15"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="79"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="81"/>
       <c r="C65" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="15"/>
+        <v>258</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>398</v>
+      </c>
       <c r="E65" s="15"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
+      <c r="A66" s="45">
         <v>22</v>
       </c>
-      <c r="B66" s="79" t="s">
-        <v>267</v>
+      <c r="B66" s="81" t="s">
+        <v>259</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="79"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="81"/>
       <c r="C67" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="79"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="81"/>
       <c r="C68" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="79"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="81"/>
       <c r="C69" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="32">
+      <c r="A70" s="44">
         <v>23</v>
       </c>
-      <c r="B70" s="79" t="s">
-        <v>268</v>
+      <c r="B70" s="81" t="s">
+        <v>260</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E70" s="15"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="79"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="81"/>
       <c r="C71" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="15"/>
+        <v>242</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>396</v>
+      </c>
       <c r="E71" s="15"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="79"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="81"/>
       <c r="C72" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>394</v>
+      </c>
       <c r="E72" s="15"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="79"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="81"/>
       <c r="C73" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D73" s="15"/>
+        <v>258</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>398</v>
+      </c>
       <c r="E73" s="15"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
+      <c r="A74" s="45">
         <v>24</v>
       </c>
-      <c r="B74" s="79" t="s">
-        <v>269</v>
+      <c r="B74" s="81" t="s">
+        <v>261</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="79"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="79"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="81"/>
       <c r="C76" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="79"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="81"/>
       <c r="C77" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="79"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="81"/>
       <c r="C78" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="32">
+      <c r="A79" s="44">
         <v>25</v>
       </c>
-      <c r="B79" s="79" t="s">
-        <v>272</v>
+      <c r="B79" s="81" t="s">
+        <v>264</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="15"/>
+      <c r="D79" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="79"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="81"/>
       <c r="C80" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="15"/>
+        <v>265</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="79"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="81"/>
       <c r="C81" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D81" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>402</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="79"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="81"/>
       <c r="C82" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D82" s="15"/>
+        <v>403</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>369</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33">
+      <c r="A83" s="45">
         <v>26</v>
       </c>
-      <c r="B83" s="79" t="s">
-        <v>276</v>
+      <c r="B83" s="81" t="s">
+        <v>267</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="79"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="81"/>
       <c r="C84" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D84" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="79"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="81"/>
       <c r="C85" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D85" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="79"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="81"/>
       <c r="C86" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="32">
+      <c r="A87" s="44">
         <v>27</v>
       </c>
-      <c r="B87" s="79" t="s">
-        <v>279</v>
+      <c r="B87" s="81" t="s">
+        <v>269</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D87" s="15"/>
+      <c r="D87" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="79"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="81"/>
       <c r="C88" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D88" s="15"/>
+        <v>270</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>347</v>
+      </c>
       <c r="E88" s="15"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="79"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="81"/>
       <c r="C89" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D89" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>402</v>
+      </c>
       <c r="E89" s="15"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="79"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="81"/>
       <c r="C90" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" s="15"/>
+        <v>405</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>369</v>
+      </c>
       <c r="E90" s="15"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="33">
+      <c r="A91" s="45">
         <v>28</v>
       </c>
-      <c r="B91" s="79" t="s">
-        <v>210</v>
+      <c r="B91" s="81" t="s">
+        <v>204</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="79"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="81"/>
       <c r="C92" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="79"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="81"/>
       <c r="C93" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="32">
+      <c r="A94" s="44">
         <v>29</v>
       </c>
-      <c r="B94" s="79" t="s">
-        <v>213</v>
+      <c r="B94" s="81" t="s">
+        <v>206</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D94" s="15"/>
+      <c r="D94" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E94" s="15"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="79"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="81"/>
       <c r="C95" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D95" s="15"/>
+        <v>205</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>408</v>
+      </c>
       <c r="E95" s="15"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="79"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="81"/>
       <c r="C96" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="15"/>
+        <v>207</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>370</v>
+      </c>
       <c r="E96" s="15"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="79"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="81"/>
       <c r="C97" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>410</v>
+      </c>
       <c r="E97" s="15"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="79"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="81"/>
       <c r="C98" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D98" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="E98" s="15"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="79"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="81"/>
       <c r="C99" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D99" s="15"/>
+        <v>412</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>411</v>
+      </c>
       <c r="E99" s="15"/>
       <c r="F99" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
     <mergeCell ref="A94:A99"/>
     <mergeCell ref="B94:B99"/>
     <mergeCell ref="A83:A86"/>
@@ -7726,58 +8666,6 @@
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="A91:A93"/>
     <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7788,9 +8676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991CA437-132A-4091-807E-760C776A3D19}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7822,481 +8710,579 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>284</v>
+      <c r="B2" s="81" t="s">
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>285</v>
+      <c r="B6" s="81" t="s">
+        <v>272</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="15"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>233</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>386</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>192</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>193</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>361</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>286</v>
+      <c r="B10" s="81" t="s">
+        <v>273</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>233</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="20"/>
+        <v>195</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>413</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="20"/>
+        <v>196</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="44">
         <v>4</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>287</v>
+      <c r="B14" s="81" t="s">
+        <v>274</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>233</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>386</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>362</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="21"/>
+        <v>199</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>363</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="45">
         <v>5</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>288</v>
+      <c r="B18" s="81" t="s">
+        <v>275</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="20"/>
+        <v>233</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="20"/>
+        <v>201</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>364</v>
+      </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="44">
         <v>6</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>289</v>
+      <c r="B21" s="81" t="s">
+        <v>276</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>233</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>386</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>203</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>414</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>415</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="45">
         <v>7</v>
       </c>
-      <c r="B25" s="79" t="s">
-        <v>290</v>
+      <c r="B25" s="81" t="s">
+        <v>277</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="20"/>
+        <v>233</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="20"/>
+        <v>279</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="44">
         <v>8</v>
       </c>
-      <c r="B29" s="79" t="s">
-        <v>293</v>
+      <c r="B29" s="81" t="s">
+        <v>280</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="21"/>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>233</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>386</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>281</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="D32" s="21"/>
+        <v>282</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>418</v>
+      </c>
       <c r="E32" s="21"/>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="45">
         <v>9</v>
       </c>
-      <c r="B33" s="79" t="s">
-        <v>272</v>
+      <c r="B33" s="81" t="s">
+        <v>264</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="20"/>
+        <v>265</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>345</v>
+      </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="20"/>
+        <v>266</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>419</v>
+      </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" s="20"/>
+        <v>403</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>369</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="44">
         <v>10</v>
       </c>
-      <c r="B37" s="79" t="s">
-        <v>276</v>
+      <c r="B37" s="81" t="s">
+        <v>267</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="21"/>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="21"/>
+        <v>268</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>346</v>
+      </c>
       <c r="E38" s="21"/>
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>266</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>419</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>404</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>369</v>
+      </c>
       <c r="E40" s="21"/>
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="A41" s="45">
         <v>11</v>
       </c>
-      <c r="B41" s="79" t="s">
-        <v>279</v>
+      <c r="B41" s="81" t="s">
+        <v>269</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" s="20"/>
+        <v>270</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>347</v>
+      </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="79"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D43" s="20"/>
+        <v>266</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>419</v>
+      </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="A41:A44"/>
@@ -8307,18 +9293,6 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8329,9 +9303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759C8A1-A15D-4DB5-94D0-0CEF30D850AB}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8363,432 +9337,510 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>296</v>
+      <c r="B2" s="81" t="s">
+        <v>283</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>298</v>
+      <c r="B6" s="81" t="s">
+        <v>285</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="15"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>284</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>356</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>299</v>
+      <c r="B10" s="81" t="s">
+        <v>286</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>380</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="20"/>
+        <v>287</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>359</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="44">
         <v>4</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>302</v>
+      <c r="B14" s="81" t="s">
+        <v>289</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>284</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>359</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="45">
         <v>5</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>303</v>
+      <c r="B18" s="81" t="s">
+        <v>290</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>380</v>
+      </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="20"/>
+        <v>192</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="44">
         <v>6</v>
       </c>
-      <c r="B22" s="79" t="s">
-        <v>304</v>
+      <c r="B22" s="81" t="s">
+        <v>291</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>284</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>195</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>413</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>361</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="45">
         <v>7</v>
       </c>
-      <c r="B26" s="79" t="s">
-        <v>305</v>
+      <c r="B26" s="81" t="s">
+        <v>292</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>380</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="20"/>
+        <v>198</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>362</v>
+      </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="20"/>
+        <v>199</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>363</v>
+      </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="44">
         <v>8</v>
       </c>
-      <c r="B30" s="79" t="s">
-        <v>306</v>
+      <c r="B30" s="81" t="s">
+        <v>293</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>284</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="21"/>
+        <v>201</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>364</v>
+      </c>
       <c r="E32" s="21"/>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="45">
         <v>9</v>
       </c>
-      <c r="B33" s="79" t="s">
-        <v>307</v>
+      <c r="B33" s="81" t="s">
+        <v>294</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D34" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>380</v>
+      </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="20"/>
+        <v>203</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="20"/>
+        <v>188</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>415</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="44">
         <v>10</v>
       </c>
-      <c r="B37" s="79" t="s">
-        <v>308</v>
+      <c r="B37" s="81" t="s">
+        <v>295</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="21"/>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="21"/>
+        <v>284</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="E38" s="21"/>
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>296</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>421</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>415</v>
+      </c>
       <c r="E40" s="21"/>
       <c r="F40" s="20"/>
     </row>
@@ -8818,6 +9870,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="A26:A29"/>
@@ -8826,18 +9890,6 @@
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8848,9 +9900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF57C25D-13BF-4BBF-AB73-8C6173F1F835}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8882,46 +9934,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>310</v>
+      <c r="B2" s="81" t="s">
+        <v>297</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -8929,8 +9989,8 @@
       <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>313</v>
+      <c r="B6" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -8941,8 +10001,8 @@
       <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="80" t="s">
-        <v>314</v>
+      <c r="B7" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -8953,8 +10013,8 @@
       <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="80" t="s">
-        <v>315</v>
+      <c r="B8" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -8965,8 +10025,8 @@
       <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>316</v>
+      <c r="B9" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -8977,8 +10037,8 @@
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>317</v>
+      <c r="B10" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
